--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HrmsFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607E345D-01D7-4113-A407-6EE0F172810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B94CE0-EC1E-4530-90EF-3015DB2560E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41880" yWindow="1920" windowWidth="13320" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>FirstName</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Farrah</t>
+  </si>
+  <si>
+    <t>Royal1235</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -520,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HrmsFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B94CE0-EC1E-4530-90EF-3015DB2560E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808299E-6795-476C-B006-2BFDB450AD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41880" yWindow="1920" windowWidth="13320" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -39,104 +40,62 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Nora</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Naomi</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Faraday</t>
-  </si>
-  <si>
-    <t>Royal123</t>
-  </si>
-  <si>
-    <t>USA_123</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Medison123</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Southfield123</t>
-  </si>
-  <si>
-    <t>UAS_123</t>
-  </si>
-  <si>
-    <t>Peppa</t>
-  </si>
-  <si>
-    <t>Birmingham123</t>
-  </si>
-  <si>
-    <t>Candy</t>
-  </si>
-  <si>
-    <t>Troy123</t>
-  </si>
-  <si>
-    <t>Suzy</t>
-  </si>
-  <si>
-    <t>Bloomfieeld`12</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Gregory</t>
-  </si>
-  <si>
-    <t>Addam</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Bloomfieeld123</t>
-  </si>
-  <si>
-    <t>Farrah</t>
-  </si>
-  <si>
-    <t>Royal1235</t>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Middlename</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Johnn</t>
+  </si>
+  <si>
+    <t>Janee</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Hx</t>
+  </si>
+  <si>
+    <t>Smithx</t>
+  </si>
+  <si>
+    <t>Mayax</t>
+  </si>
+  <si>
+    <t>Norax</t>
+  </si>
+  <si>
+    <t>Naomix</t>
+  </si>
+  <si>
+    <t>Felixx</t>
+  </si>
+  <si>
+    <t>Heightx</t>
+  </si>
+  <si>
+    <t>Faradayx</t>
+  </si>
+  <si>
+    <t>Adminx</t>
+  </si>
+  <si>
+    <t>Royal1235x</t>
+  </si>
+  <si>
+    <t>admin123_@H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +116,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,15 +148,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -489,212 +466,101 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5D9F9C68-C91E-4C9D-9341-EDCD66AB5A0C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{52415572-64E0-46E4-9E28-E8671F9D712E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{265B366F-F774-462C-B128-2C1D3CEE04D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2195B679-85ED-4EF8-879C-4525BB4B020A}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="16.77734375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HrmsFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HrmsTestNGFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808299E-6795-476C-B006-2BFDB450AD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3154A38F-6BA0-4A99-9D97-0049635548BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4644" yWindow="1992" windowWidth="14868" windowHeight="10152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="3" r:id="rId2"/>
+    <sheet name="AddEmployee" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -82,20 +83,74 @@
     <t>Faradayx</t>
   </si>
   <si>
-    <t>Adminx</t>
-  </si>
-  <si>
-    <t>Royal1235x</t>
-  </si>
-  <si>
-    <t>admin123_@H</t>
+    <t>adminAA123_@H</t>
+  </si>
+  <si>
+    <t>adminBB123_@H</t>
+  </si>
+  <si>
+    <t>adminCC123_@H</t>
+  </si>
+  <si>
+    <t>Royal1235xx1x</t>
+  </si>
+  <si>
+    <t>Admin234xxx1</t>
+  </si>
+  <si>
+    <t>Adminx345xx1</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>selectionCriteria</t>
+  </si>
+  <si>
+    <t>DisplayFieldGroups</t>
+  </si>
+  <si>
+    <t>DisplayFields</t>
+  </si>
+  <si>
+    <t>EmployeeContact</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Past Employees Only</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Pay Grade</t>
+  </si>
+  <si>
+    <t>Education Credentials</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Current Employees Only</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +185,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,20 +210,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{60F2ED85-C17A-4B77-92A1-F4B2593EDFB9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -472,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -486,10 +551,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -500,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
@@ -518,6 +583,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A1A8CE-B896-47F6-AD66-BE250518D91B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2195B679-85ED-4EF8-879C-4525BB4B020A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
